--- a/TCN/idempiere开发快速上手指南.xlsx
+++ b/TCN/idempiere开发快速上手指南.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4395" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="7" r:id="rId1"/>
     <sheet name="环境" sheetId="3" r:id="rId2"/>
-    <sheet name="修改登录画面" sheetId="6" r:id="rId3"/>
+    <sheet name="OSGI配置" sheetId="9" r:id="rId3"/>
     <sheet name="Model" sheetId="1" r:id="rId4"/>
     <sheet name="callout" sheetId="5" r:id="rId5"/>
     <sheet name="validate" sheetId="11" r:id="rId6"/>
     <sheet name="ProcessButtom" sheetId="12" r:id="rId7"/>
     <sheet name="PorcessSave" sheetId="13" r:id="rId8"/>
-    <sheet name="其他" sheetId="14" r:id="rId9"/>
-    <sheet name="OSGI配置" sheetId="9" r:id="rId10"/>
+    <sheet name="jaspser" sheetId="15" r:id="rId9"/>
+    <sheet name="其他" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
   <si>
     <t>数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建一个继承CalloutEngine类的CalloutCMaterial类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建一个继承CalloutCMaterial的TCN_CalloutFromFactory类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alter table C_Material add column total numberic(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(100),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击工具栏中的按钮打印标准报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击工具栏中的按钮打印JasperReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProcessReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcessJasper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,9 +459,6 @@
     <t>http://www.adempiere.com/NewWindow</t>
   </si>
   <si>
-    <t>http://www.adempiere.com/How_to_create_a_complete_new_module_in_ADempiere</t>
-  </si>
-  <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,6 +503,219 @@
   </si>
   <si>
     <t>版本控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建调用报表的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WindowType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 是maintain？Transaction？  区别是关闭的状态是否默认显示</t>
+    </r>
+  </si>
+  <si>
+    <t>Table中的Window没设置的话，ZOOM的功能不能用</t>
+  </si>
+  <si>
+    <r>
+      <t>选择子画面在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。选择字段后就可以了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>memo_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 使用@#date@做默认值？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SelectionColumn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打勾后，会在检索画面作为条件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Identified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾选后，可以显示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Key+value</t>
+    </r>
+  </si>
+  <si>
+    <t>范围以外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate和callout的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The main difference between MClass and validator is that the existing MClasses are part of the ADempiere core and the validators are ment to enhance the core (to allow customizations). Note: this belongs to the standard ADempiere tables - if you create your own table you can put all logic in the MClass since it is a customisation itself..</t>
+  </si>
+  <si>
+    <t>If you need to change or enhance the business logic of an order(e.g. check if the selected shipping type is available for the selected destination) you shouldn't do it in the standard MClass MOrder. If you do so, you need to merge your customized MOrder-Class by hand everytime you upgrade ADempiere. If you use your own validator class for this the upgrade will be much easier.</t>
+  </si>
+  <si>
+    <t>callout和validator的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简略说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn管理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.adempiere.com/How_to_create_a_complete_new_module_in_ADempiere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Mcmaterialine类，添加触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个继承CalloutEngine类的CalloutCMaterial类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +789,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,6 +851,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,6 +1121,1488 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="1152525"/>
+          <a:ext cx="7248525" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>package org.iv.tcn.model;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.util.Properties;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.sql.PreparedStatement;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.sql.ResultSet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.iv.tcn.model.X_C_Material;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>public class MCMaterial extends X_C_Material {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	/**	Process Message  */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	private static final long serialVersionUID =9879869;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	public MCMaterial(Properties ctx, int C_Material_ID,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			String trxName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		super(ctx, C_Material_ID, trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		// TODO Auto-generated constructor stub</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	public MCMaterial(Properties ctx, ResultSet rs, String trxName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		super(ctx, rs, trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		// TODO Auto-generated constructor stub</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	public static MCMaterial getMaterial(Properties ctx,int C_Material_ID,String trxName){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return new MCMaterial(ctx,C_Material_ID,trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="7381875"/>
+          <a:ext cx="7248525" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>package org.iv.tcn.model;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.sql.ResultSet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.adempiere.base.IModelFactory;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.compiere.model.PO;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.compiere.util.Env;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public class TCN_ModelFactory implements IModelFactory {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public Class&lt;?&gt; getClass(String tableName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (tableName.equals(I_C_Material.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Table_Name)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return MCMaterial.class;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public PO getPO(String tableName, int Record_ID, String trxName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (tableName.equals(I_C_Material.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Table_Name)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return new MCMaterial(Env.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getCtx(), Record_ID, trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public PO getPO(String tableName, ResultSet rs, String trxName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (tableName.equals(I_C_Material.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Table_Name)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return new MCMaterial(Env.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getCtx(), rs, trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="14544676"/>
+          <a:ext cx="6867525" cy="1876424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;scr:component xmlns:scr="http://www.osgi.org/xmlns/scr/v1.1.0" name="org.iv.tcn.model.factory"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   &lt;implementation class="org.iv.tcn.model.TCN_ModelFactory"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   &lt;property name="service.ranking" type="Integer" value="1"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   &lt;service&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      &lt;provide interface="org.adempiere.base.IModelFactory"/&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   &lt;/service&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/scr:component&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="17278350"/>
+          <a:ext cx="7162800" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Manifest-Version: 1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-ManifestVersion: 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-Name: Tcn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-SymbolicName: org.iv.tcn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-Version: 1.0.0.qualifier</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Import-Package: org.osgi.framework;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version="1.3.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> org.osgi.service.event;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>version="1.2.0"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Require-Bundle: org.adempiere.base;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bundle-version="1.0.0",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> org.adempiere.plugin.utils;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bundle-version="0.0.0"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-Activator: org.adempiere.plugin.utils.AdempiereActivator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Service-Component: OSGI-INF/*.xml</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bundle-RequiredExecutionEnvironment: JavaSE-1.6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551438</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>132733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="20231100"/>
+          <a:ext cx="8095238" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="21840825"/>
+          <a:ext cx="3676650" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+            <a:t>bundle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>默认启动级别是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>一般</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+            <a:t>&gt;4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>即可</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>小于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+            <a:t>会有警告</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>503905</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>38010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="25546050"/>
+          <a:ext cx="7361905" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2073,20 +3773,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2095,8 +3795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="1714500"/>
-          <a:ext cx="6457950" cy="7772400"/>
+          <a:off x="4552949" y="1047749"/>
+          <a:ext cx="7877175" cy="8772525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2157,7 +3857,7 @@
             <a:t>import </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2181,7 +3881,7 @@
             <a:t>import </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2205,7 +3905,7 @@
             <a:t>import </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2242,7 +3942,7 @@
             <a:t>import </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2397,7 +4097,7 @@
             <a:t>String </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2431,7 +4131,7 @@
             <a:t>//if (!mTab.getTableName().equals("C_Material") || !mField.getColumnName().equals("</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -2625,7 +4325,7 @@
             <a:t>//log.log(Level.SEVERE, "</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="none" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3603,16 +5303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666040</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>75920</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199315</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>94970</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3629,7 +5329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="24755475"/>
+          <a:off x="6181725" y="24088725"/>
           <a:ext cx="5676190" cy="2238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4109,7 +5809,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5173,15 +6873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>387</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5190,7 +6890,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="66522599"/>
+          <a:off x="1428750" y="66474974"/>
           <a:ext cx="7981950" cy="5153025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8189,30 +9889,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="1152525"/>
-          <a:ext cx="7248525" cy="5229225"/>
+          <a:off x="1666874" y="1466850"/>
+          <a:ext cx="8801101" cy="22174200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8238,212 +9938,1832 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>package org.iv.tcn.model;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>import java.util.Properties;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.util.logging.Level;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>import java.sql.PreparedStatement;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>import java.sql.ResultSet;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>import org.iv.tcn.model.X_C_Material;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>public class MCMaterial extends X_C_Material {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import java.sql.SQLException;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.compiere.model.MAssetAddition;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.compiere.model.MInvoiceLine;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.compiere.util.DB;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import org.iv.tcn.model.X_C_MaterialLine;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public class MCMaterialLine extends X_C_MaterialLine {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	/**	Process Message  */</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	private static final long serialVersionUID =9879869;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	public MCMaterial(Properties ctx, int C_Material_ID,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	public MCMaterialLine(Properties ctx, int C_MaterialLine_ID,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>			String trxName) {</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		super(ctx, C_Material_ID, trxName);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		super(ctx, C_MaterialLine_ID, trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>		// TODO Auto-generated constructor stub</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	}</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	public MCMaterial(Properties ctx, ResultSet rs, String trxName) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	public MCMaterialLine(Properties ctx, ResultSet rs, String trxName) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>		super(ctx, rs, trxName);</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>		// TODO Auto-generated constructor stub</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	}</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	public static MCMaterial getMaterial(Properties ctx,int C_Material_ID,String trxName){</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		return new MCMaterial(ctx,C_Material_ID,trxName);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	public static MCMaterialLine getMaterial(Properties ctx,int C_MaterialLine_ID,String trxName){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return new MCMaterialLine(ctx,C_MaterialLine_ID,trxName);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>	}</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	protected boolean afterDelete(boolean success) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		int count = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		try</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			String sqlcount = "Select count(*) from C_MaterialLine "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>					+" where C_Material_ID = ?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>					;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			PreparedStatement pstmtcount = DB.prepareStatement(sqlcount,get_TrxName());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtcount.setInt(1, getC_Material_ID());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			ResultSet rs = pstmtcount.executeQuery();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			while (rs.next()){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				count = rs.getInt(1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			// update total</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			String sqlupdate = "Update C_Material "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				+ "Set Total = ? "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				+ " WHERE C_Material_ID = ?";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			PreparedStatement pstmtupdate = DB.prepareStatement(sqlupdate, get_TrxName());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.setInt(1, count);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.setInt(2, getC_Material_ID());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			int nodel = pstmtupdate.executeUpdate();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			log.config("C_Material total="+count);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.close();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		catch (SQLException e)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			log.log(Level.SEVERE, "", e);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			return false;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	protected boolean beforeDelete() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		//updateHeaderAmount();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	protected boolean afterSave(boolean newRecord, boolean success) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		int count = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		try</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			String sqlcount = "Select count(*) from C_MaterialLine "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>					+" where C_Material_ID = ?"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>					;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			PreparedStatement pstmtcount = DB.prepareStatement(sqlcount,get_TrxName());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtcount.setInt(1, getC_Material_ID());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			ResultSet rs = pstmtcount.executeQuery();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			while (rs.next()){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				count = rs.getInt(1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			// update total</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			String sqlupdate = "Update C_Material "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				+ "Set Total = ? "</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				+ " WHERE C_Material_ID = ?";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			PreparedStatement pstmtupdate = DB.prepareStatement(sqlupdate, get_TrxName());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.setInt(1, count);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.setInt(2, getC_Material_ID());</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			int nodel = pstmtupdate.executeUpdate();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			log.config("C_Material total="+count);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			pstmtupdate.close();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		catch (SQLException e)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			log.log(Level.SEVERE, "", e);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			return false;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	protected boolean beforeSave(boolean newRecord) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		// Check LineNet Amount Should Not Over Invoice Total Amount</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		return true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>}</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>332648</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1028700"/>
+          <a:ext cx="5819048" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>437152</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>170400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5314950"/>
+          <a:ext cx="7980952" cy="8400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>427628</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>170679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14230350"/>
+          <a:ext cx="7971428" cy="6171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103733</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>94509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="20916900"/>
+          <a:ext cx="8333333" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>637152</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>56543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="27774900"/>
+          <a:ext cx="8180952" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160892</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>66302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="33432750"/>
+          <a:ext cx="8266667" cy="2980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="9" name="矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="7886700"/>
-          <a:ext cx="7248525" cy="5819775"/>
+          <a:off x="1447801" y="37947598"/>
+          <a:ext cx="9115424" cy="12915901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8469,1211 +11789,476 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>package org.iv.tcn.model;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>package org.iv.tcn.process;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.sql.PreparedStatement;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>import java.sql.ResultSet;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>import org.adempiere.base.IModelFactory;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>import org.compiere.model.PO;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.sql.Timestamp;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import java.util.logging.Level;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.print.MPrintFormat;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.print.ServerReportCtl;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.process.ProcessInfo;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.process.ProcessInfoParameter;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.process.SvrProcess;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.util.AdempiereUserError;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>import org.compiere.util.DB;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>import org.compiere.util.Env;</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public class TCN_ModelFactory implements IModelFactory {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@Override</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public Class&lt;?&gt; getClass(String tableName) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (tableName.equals(I_C_Material.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Table_Name)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return MCMaterial.class;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>       </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   } </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>else    </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return null;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>public class JasperReportPrint extends SvrProcess {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	private String p_param = "";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	private int		p_Record_ID = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	private ProcessInfo			m_pi;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	protected void prepare()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		ProcessInfoParameter[] para = getParameter();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		p_Record_ID = getRecord_ID();	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		for (int i = 0; i &lt; para.length; i++)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			String name = para[i].getParameterName();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			String value = para[i].getParameterAsString();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			log.log(Level.SEVERE, "Parameter List : " + name + " value :" + value);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			if (para[i].getParameter() == null)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			else if (name.equals("param1"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				p_param = value;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			else if(name.equals("param2"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				if(p_param.equals("p1"))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>					para[i].setParameter(p_Record_ID);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>					log.log(Level.SEVERE, "Unknown Parameter: " + name);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>					</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}	//	prepare</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	@Override</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	protected String doIt() throws Exception {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		return "";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@Override</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public PO getPO(String tableName, int Record_ID, String trxName) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (tableName.equals(I_C_Material.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Table_Name)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return new MCMaterial(Env.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>getCtx(), Record_ID, trxName);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   } </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>else    </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return null;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@Override</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>public PO getPO(String tableName, ResultSet rs, String trxName) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (tableName.equals(I_C_Material.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Table_Name)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>     </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return new MCMaterial(Env.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>getCtx(), rs, trxName);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> } </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>else </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>return null;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="14544676"/>
-          <a:ext cx="6867525" cy="1876424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&lt;scr:component xmlns:scr="http://www.osgi.org/xmlns/scr/v1.1.0" name="org.iv.tcn.model.factory"&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   &lt;implementation class="org.iv.tcn.model.TCN_ModelFactory"/&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   &lt;property name="service.ranking" type="Integer" value="1"/&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   &lt;service&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      &lt;provide interface="org.adempiere.base.IModelFactory"/&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   &lt;/service&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>&lt;/scr:component&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3781425" y="16773525"/>
-          <a:ext cx="7162800" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Manifest-Version: 1.0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-ManifestVersion: 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-Name: Tcn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-SymbolicName: org.iv.tcn</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-Version: 1.0.0.qualifier</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Import-Package: org.osgi.framework;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>version="1.3.0",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> org.osgi.service.event;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>version="1.2.0"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Require-Bundle: org.adempiere.base;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>bundle-version="1.0.0",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> org.adempiere.plugin.utils;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>bundle-version="0.0.0"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-Activator: org.adempiere.plugin.utils.AdempiereActivator</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Service-Component: OSGI-INF/*.xml</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bundle-RequiredExecutionEnvironment: JavaSE-1.6</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>551438</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>132733</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="20231100"/>
-          <a:ext cx="8095238" cy="4933333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5962650" y="21840825"/>
-          <a:ext cx="3676650" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>bundle</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>默认启动级别是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>4,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>级别</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>为安装</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>一般</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>&gt;4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>即可</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>小于</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-            <a:t>会有警告</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" i="1"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>503905</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>38010</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="25546050"/>
-          <a:ext cx="7361905" cy="723810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9942,249 +12527,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B24:K57"/>
+  <dimension ref="B24:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="C55" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="C56" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" s="7" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C53" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C54" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C55" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C53" r:id="rId1"/>
-    <hyperlink ref="C54" r:id="rId2"/>
-    <hyperlink ref="C55" r:id="rId3"/>
-    <hyperlink ref="C57" r:id="rId4"/>
+    <hyperlink ref="C54" r:id="rId1"/>
+    <hyperlink ref="C55" r:id="rId2"/>
+    <hyperlink ref="C56" r:id="rId3"/>
+    <hyperlink ref="C58" r:id="rId4"/>
+    <hyperlink ref="C57" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C103"/>
+  <dimension ref="B3:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>41</v>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>42</v>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
-        <v>53</v>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C103" t="s">
-        <v>43</v>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="14.25">
+      <c r="C15" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="14.25">
+      <c r="C17" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.25">
+      <c r="C18" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.25">
+      <c r="C19" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14.25">
+      <c r="C20" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10192,13 +12845,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -10206,27 +12859,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:2">
       <c r="B95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:2">
       <c r="B96" t="s">
         <v>6</v>
       </c>
@@ -10240,16 +12893,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10257,34 +12933,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E315"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -10292,7 +12968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -10300,7 +12976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -10308,7 +12984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -10316,7 +12992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -10324,7 +13000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -10332,7 +13008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -10340,15 +13016,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>66</v>
+    <row r="14" spans="1:5">
+      <c r="B14" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
@@ -10359,7 +13035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -10370,61 +13046,61 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="B37" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -10432,7 +13108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -10440,7 +13116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -10448,7 +13124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -10456,15 +13132,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:2">
       <c r="B238" s="6"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:2">
       <c r="B261" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -10472,7 +13148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>40</v>
       </c>
@@ -10489,40 +13165,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B123"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -10536,11 +13212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10551,37 +13227,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F640"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+    <sheetView topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="D662" sqref="D662"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
@@ -10589,7 +13265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -10597,7 +13273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
@@ -10605,7 +13281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
@@ -10613,7 +13289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
@@ -10621,7 +13297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6">
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
@@ -10629,7 +13305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6">
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
@@ -10637,17 +13313,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="1" t="s">
-        <v>68</v>
+    <row r="14" spans="2:6">
+      <c r="C14" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
@@ -10656,7 +13332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
@@ -10667,7 +13343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
@@ -10678,9 +13354,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="C18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -10689,87 +13365,82 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B132" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B157" t="s">
-        <v>71</v>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
-        <v>72</v>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B364" t="s">
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B365" t="s">
+    <row r="506" spans="2:2">
+      <c r="B506" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B388" t="s">
-        <v>62</v>
+    <row r="532" spans="2:2">
+      <c r="B532" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B424" t="s">
-        <v>61</v>
+    <row r="612" spans="2:2">
+      <c r="B612" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B488" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B506" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B532" t="s">
+    <row r="640" spans="2:2">
+      <c r="B640" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B612" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B640" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -10782,73 +13453,60 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>84</v>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D10"/>
+  <dimension ref="B219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="M219" sqref="M219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
-        <v>88</v>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>